--- a/选房/选房终稿.xlsx
+++ b/选房/选房终稿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ln\选房\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FA1630-4E84-4C83-873E-7EC033704ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC0A0F-8D37-49BE-B71D-219D99093A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="3120" windowWidth="23040" windowHeight="12264" xr2:uid="{8F8446B7-3D0E-424C-8226-9956FDB8247C}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{8F8446B7-3D0E-424C-8226-9956FDB8247C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="14">
   <si>
     <t>地块</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>5#</t>
+  </si>
+  <si>
+    <t>是否连</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F482870-A135-4795-BE5F-61A1B4A430FC}">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,7 +496,7 @@
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +512,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>9</v>
       </c>
@@ -526,7 +533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -543,7 +550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -560,7 +567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -577,7 +584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -594,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -611,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -628,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -645,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -662,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -679,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -696,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -713,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -730,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -747,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
